--- a/drools-usetest/src/main/resources/rules/complicated_rule.xlsx
+++ b/drools-usetest/src/main/resources/rules/complicated_rule.xlsx
@@ -597,7 +597,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
